--- a/Excel/SkillJudgeConfig@cs.xlsx
+++ b/Excel/SkillJudgeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -43,18 +43,6 @@
     <t>速度（m/s）</t>
   </si>
   <si>
-    <t>伤害计算公式(效果Id包含变化生命值时启用，变量用属性表的Key，前加$表示用对方属性)</t>
-  </si>
-  <si>
-    <t>buff</t>
-  </si>
-  <si>
-    <t>buff持续时间（单位毫秒）</t>
-  </si>
-  <si>
-    <t>离开范围是否移除BUFF</t>
-  </si>
-  <si>
     <t>ColliderType</t>
   </si>
   <si>
@@ -73,18 +61,6 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>FormulaId</t>
-  </si>
-  <si>
-    <t>BuffIds</t>
-  </si>
-  <si>
-    <t>BuffTimes</t>
-  </si>
-  <si>
-    <t>IsExitRemove</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -95,9 +71,6 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>炎爆</t>
@@ -123,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -155,20 +128,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -176,11 +135,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,64 +209,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,46 +225,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,19 +294,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,37 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,121 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,18 +530,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -606,9 +577,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,148 +590,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1094,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1109,11 +1082,7 @@
     <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
     <col min="8" max="9" width="23.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
@@ -1136,7 +1105,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="60" spans="1:14">
+    <row r="3" ht="60" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -1163,20 +1132,8 @@
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:14">
+    </row>
+    <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
@@ -1184,84 +1141,60 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:14">
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -1281,16 +1214,13 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="3:11">
+    </row>
+    <row r="7" ht="16.5" spans="3:10">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1305,21 +1235,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="3:11">
+    </row>
+    <row r="8" ht="16.5" spans="3:10">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -1339,16 +1266,13 @@
       <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="3:11">
+    </row>
+    <row r="9" ht="16.5" spans="3:10">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1368,16 +1292,13 @@
       <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="3:14">
+    </row>
+    <row r="10" ht="16.5" spans="3:8">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
@@ -1389,15 +1310,6 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
